--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_14.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_14.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>619521.1884927361</v>
+        <v>646868.4207897208</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514378</v>
+        <v>925399.3994514381</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006067</v>
+        <v>18327015.93006068</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5379741.591057926</v>
+        <v>5379741.591057927</v>
       </c>
     </row>
     <row r="11">
@@ -671,13 +671,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>33.80371536444976</v>
       </c>
       <c r="S2" t="n">
-        <v>62.4162677022923</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>50.05769526855297</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -947,13 +947,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>72.47049842454879</v>
       </c>
       <c r="U5" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
-        <v>90.38893773807641</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1035,7 +1035,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1148,13 +1148,13 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,28 +1175,28 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
-        <v>241.0142888776591</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1215,13 +1215,13 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>110.6711786524736</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1263,22 +1263,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>34.06188885266087</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -1379,16 +1379,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>190.3453970742847</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -1415,19 +1415,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -1467,7 +1467,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>62.13484214871502</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>14.83685490770591</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1567,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1616,64 +1616,64 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="W14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G14" t="n">
+      <c r="X14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H14" t="n">
+      <c r="Y14" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R14" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S14" t="n">
-        <v>52.42556848774752</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1692,22 +1692,22 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>99.99474209241133</v>
       </c>
       <c r="H15" t="n">
-        <v>9.894394903258235</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1740,7 +1740,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1752,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,13 +1804,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>133.186967585368</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1850,10 +1850,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="F17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>241.0142888776591</v>
@@ -1889,13 +1889,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>94.41048699370604</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="18">
@@ -1926,22 +1926,22 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,25 +1968,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>46.03546545923035</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2084,22 +2084,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
-        <v>1.809496073036188</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2144,10 +2144,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,25 +2205,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>29.79900896488251</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>141.1252983242763</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2318,16 +2318,16 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
         <v>241.0142888776591</v>
@@ -2360,13 +2360,13 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2375,13 +2375,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2397,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2445,25 +2445,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>50.05769526855297</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>164.8304714084692</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2536,13 +2536,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,13 +2606,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>232.8330857361503</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2640,22 +2640,22 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2691,16 +2691,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>65.50045431635739</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>197.9815135142266</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2752,16 +2752,16 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2789,76 +2789,76 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="X29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
+      <c r="Y29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="30">
@@ -2871,16 +2871,16 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>69.76980636878038</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -2889,10 +2889,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>66.86520245624389</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2928,16 +2928,16 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2989,10 +2989,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3004,13 +3004,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3035,7 +3035,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>241.0142888776591</v>
@@ -3044,58 +3044,58 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3108,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3159,13 +3159,13 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>110.1497834296626</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
@@ -3174,7 +3174,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>55.57566235103577</v>
       </c>
     </row>
     <row r="34">
@@ -3190,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3211,7 +3211,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -3226,13 +3226,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3263,19 +3263,19 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3284,10 +3284,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>1.809496073036188</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3311,13 +3311,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3345,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>91.00671443664322</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3393,10 +3393,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>56.91690033700343</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
@@ -3408,7 +3408,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3503,19 +3503,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3545,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3560,7 +3560,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3582,13 +3582,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>56.91690033700354</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>72.87685072029042</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3627,28 +3627,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3712,13 +3712,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
         <v>241.0142888776591</v>
@@ -3785,13 +3785,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3800,13 +3800,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X41" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="42">
@@ -3816,28 +3816,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>16.62553367015321</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>110.1113226016109</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,10 +3867,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3885,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3986,19 +3986,19 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G44" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H44" t="n">
-        <v>40.47627913313511</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4019,10 +4019,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4040,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>241.0142888776591</v>
@@ -4056,13 +4056,13 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>62.86349518004438</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4101,16 +4101,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>189.6723709928539</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4144,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I2" t="n">
         <v>19.28114311021272</v>
@@ -4352,28 +4352,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>812.6742080953335</v>
+        <v>929.9119884758385</v>
       </c>
       <c r="S2" t="n">
-        <v>749.627473042513</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="T2" t="n">
-        <v>749.627473042513</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="U2" t="n">
-        <v>506.1786963984129</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="V2" t="n">
-        <v>262.7299197543128</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="W2" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="X2" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
     </row>
     <row r="3">
@@ -4410,46 +4410,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>487.8483949674443</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>913.4938269565423</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V3" t="n">
-        <v>678.3417187247995</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W3" t="n">
-        <v>434.8929420806995</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X3" t="n">
-        <v>227.0414418751666</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y3" t="n">
         <v>19.28114311021272</v>
@@ -4595,10 +4595,10 @@
         <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>366.1018663125844</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="U5" t="n">
-        <v>122.6530896684844</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="V5" t="n">
         <v>31.35113235729608</v>
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
         <v>19.28114311021272</v>
@@ -4647,22 +4647,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>712.019119383956</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4683,13 +4683,13 @@
         <v>23.90796037760316</v>
       </c>
       <c r="W6" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X6" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y6" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C8" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D8" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E8" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4823,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V8" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W8" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X8" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y8" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>258.5151819143075</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="C9" t="n">
-        <v>258.5151819143075</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="D9" t="n">
-        <v>109.5807722530562</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="E9" t="n">
-        <v>109.5807722530562</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F9" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
         <v>19.28114311021272</v>
@@ -4890,16 +4890,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4911,22 +4911,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>929.6512071746151</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>701.4275889110041</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>466.2754806792614</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W9" t="n">
-        <v>466.2754806792614</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X9" t="n">
-        <v>466.2754806792614</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y9" t="n">
-        <v>258.5151819143075</v>
+        <v>277.6047704292607</v>
       </c>
     </row>
     <row r="10">
@@ -4954,7 +4954,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I10" t="n">
         <v>136.0777814360265</v>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>953.9655401424092</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C11" t="n">
-        <v>953.9655401424092</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D11" t="n">
-        <v>953.9655401424092</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E11" t="n">
-        <v>953.9655401424092</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F11" t="n">
-        <v>710.516763498309</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G11" t="n">
-        <v>467.067986854209</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H11" t="n">
-        <v>223.6192102101089</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I11" t="n">
         <v>31.35113235729608</v>
@@ -5063,28 +5063,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T11" t="n">
-        <v>953.9655401424092</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U11" t="n">
-        <v>953.9655401424092</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V11" t="n">
-        <v>953.9655401424092</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="W11" t="n">
-        <v>953.9655401424092</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="X11" t="n">
-        <v>953.9655401424092</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y11" t="n">
-        <v>953.9655401424092</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C12" t="n">
-        <v>789.6041262295092</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D12" t="n">
-        <v>640.669716568258</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E12" t="n">
-        <v>481.4322615628025</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F12" t="n">
-        <v>334.8977035896875</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G12" t="n">
-        <v>196.166878172303</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H12" t="n">
-        <v>82.7977425798823</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I12" t="n">
         <v>20.03527576299844</v>
@@ -5124,46 +5124,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M12" t="n">
-        <v>542.809531908403</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N12" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O12" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="13">
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F13" t="n">
         <v>136.0777814360265</v>
@@ -5215,34 +5215,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C14" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D14" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E14" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F14" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
         <v>19.28114311021272</v>
@@ -5297,31 +5297,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T14" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U14" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V14" t="n">
         <v>749.627473042513</v>
       </c>
       <c r="W14" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X14" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y14" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>259.0600686093459</v>
+        <v>279.5233881080029</v>
       </c>
       <c r="C15" t="n">
-        <v>259.0600686093459</v>
+        <v>279.5233881080029</v>
       </c>
       <c r="D15" t="n">
-        <v>259.0600686093459</v>
+        <v>279.5233881080029</v>
       </c>
       <c r="E15" t="n">
-        <v>259.0600686093459</v>
+        <v>120.2859331025474</v>
       </c>
       <c r="F15" t="n">
-        <v>259.0600686093459</v>
+        <v>120.2859331025474</v>
       </c>
       <c r="G15" t="n">
-        <v>120.3292431919614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
@@ -5364,16 +5364,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N15" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O15" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P15" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
@@ -5388,19 +5388,19 @@
         <v>487.2836868729568</v>
       </c>
       <c r="U15" t="n">
-        <v>259.0600686093459</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V15" t="n">
-        <v>259.0600686093459</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W15" t="n">
-        <v>259.0600686093459</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X15" t="n">
-        <v>259.0600686093459</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y15" t="n">
-        <v>259.0600686093459</v>
+        <v>279.5233881080029</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5452,34 +5452,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q16" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="S16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5489,16 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="C17" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="D17" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="E17" t="n">
         <v>506.1786963984129</v>
-      </c>
-      <c r="C17" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="D17" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="E17" t="n">
-        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
         <v>262.7299197543128</v>
@@ -5537,28 +5537,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>816.3871559026832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>816.3871559026832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>667.4527462414319</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>508.2152912359765</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
         <v>19.28114311021272</v>
@@ -5598,16 +5598,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>248.2447175439888</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M18" t="n">
-        <v>486.8488635328713</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N18" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
         <v>964.0571555106362</v>
@@ -5616,28 +5616,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>816.3871559026832</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>816.3871559026832</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U18" t="n">
-        <v>816.3871559026832</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V18" t="n">
-        <v>816.3871559026832</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W18" t="n">
-        <v>816.3871559026832</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X18" t="n">
-        <v>816.3871559026832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>816.3871559026832</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D20" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X20" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y20" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5838,43 +5838,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>725.4530095217538</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>933.9571464551993</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U21" t="n">
-        <v>705.7335281915883</v>
+        <v>344.732880484799</v>
       </c>
       <c r="V21" t="n">
-        <v>470.5814199598456</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="W21" t="n">
-        <v>227.1326433157456</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="X21" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
     </row>
     <row r="22">
@@ -5932,10 +5932,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
         <v>19.28114311021272</v>
@@ -5963,16 +5963,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F23" t="n">
         <v>262.7299197543128</v>
@@ -5984,10 +5984,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="J23" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K23" t="n">
         <v>122.2961490211351</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="24">
@@ -6042,7 +6042,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C24" t="n">
         <v>19.28114311021272</v>
@@ -6069,19 +6069,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6093,25 +6093,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U24" t="n">
-        <v>913.4938269565423</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V24" t="n">
-        <v>678.3417187247995</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="W24" t="n">
-        <v>434.8929420806995</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="X24" t="n">
-        <v>227.0414418751666</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6254,22 +6254,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U26" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V26" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W26" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X26" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6279,46 +6279,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>362.4348659156472</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="C27" t="n">
-        <v>362.4348659156472</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="D27" t="n">
-        <v>362.4348659156472</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E27" t="n">
-        <v>362.4348659156472</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F27" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>248.2447175439888</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>486.8488635328713</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N27" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6327,28 +6327,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U27" t="n">
-        <v>562.4161926976942</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V27" t="n">
-        <v>562.4161926976942</v>
+        <v>568.5019327328832</v>
       </c>
       <c r="W27" t="n">
-        <v>562.4161926976942</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="X27" t="n">
-        <v>562.4161926976942</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="Y27" t="n">
-        <v>362.4348659156472</v>
+        <v>325.0531560887832</v>
       </c>
     </row>
     <row r="28">
@@ -6400,13 +6400,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
         <v>19.28114311021272</v>
@@ -6440,13 +6440,13 @@
         <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
         <v>19.28114311021272</v>
@@ -6494,19 +6494,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X29" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>417.9156620931329</v>
+        <v>756.2968567456824</v>
       </c>
       <c r="C30" t="n">
-        <v>417.9156620931329</v>
+        <v>581.8438274645554</v>
       </c>
       <c r="D30" t="n">
-        <v>417.9156620931329</v>
+        <v>432.9094178033041</v>
       </c>
       <c r="E30" t="n">
-        <v>417.9156620931329</v>
+        <v>432.9094178033041</v>
       </c>
       <c r="F30" t="n">
-        <v>271.3811041200179</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G30" t="n">
-        <v>132.6502787026334</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M30" t="n">
-        <v>473.4149733950735</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>896.5165469689757</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>896.5165469689757</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>896.5165469689757</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>896.5165469689757</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>661.3644387372331</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W30" t="n">
-        <v>417.9156620931329</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X30" t="n">
-        <v>417.9156620931329</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y30" t="n">
-        <v>417.9156620931329</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="31">
@@ -6637,25 +6637,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C32" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D32" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E32" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F32" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G32" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6719,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y32" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="33">
@@ -6753,7 +6753,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
         <v>19.28114311021272</v>
@@ -6786,13 +6786,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6807,22 +6807,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V33" t="n">
-        <v>852.7947480059265</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W33" t="n">
-        <v>609.3459713618265</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="X33" t="n">
-        <v>401.4944711562937</v>
+        <v>75.41817578802664</v>
       </c>
       <c r="Y33" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D34" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
         <v>19.28114311021272</v>
@@ -6874,34 +6874,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C35" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>21.10891692136039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6959,28 +6959,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y35" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="36">
@@ -6990,7 +6990,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>111.2071172886402</v>
       </c>
       <c r="C36" t="n">
         <v>19.28114311021272</v>
@@ -7017,19 +7017,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>65.60123993063803</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7041,25 +7041,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>906.5653369884105</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U36" t="n">
-        <v>678.3417187247995</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V36" t="n">
-        <v>678.3417187247995</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="W36" t="n">
-        <v>434.8929420806995</v>
+        <v>318.9674160535941</v>
       </c>
       <c r="X36" t="n">
-        <v>227.0414418751666</v>
+        <v>318.9674160535941</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.28114311021272</v>
+        <v>111.2071172886402</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C38" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D38" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E38" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F38" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W38" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X38" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y38" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,13 +7227,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>76.77296163243852</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E39" t="n">
         <v>19.28114311021272</v>
@@ -7257,13 +7257,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N39" t="n">
-        <v>726.4525409563269</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O39" t="n">
         <v>964.0571555106362</v>
@@ -7275,28 +7275,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U39" t="n">
-        <v>735.8335372470253</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V39" t="n">
-        <v>735.8335372470253</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="W39" t="n">
-        <v>492.3847606029253</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="X39" t="n">
-        <v>284.5332603973924</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="Y39" t="n">
-        <v>76.77296163243852</v>
+        <v>252.1315786412141</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7433,28 +7433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V41" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W41" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X41" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>619.4388494194218</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C42" t="n">
-        <v>619.4388494194218</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>508.2152912359765</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>508.2152912359765</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
         <v>19.28114311021272</v>
@@ -7491,19 +7491,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M42" t="n">
-        <v>542.809531908403</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N42" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
         <v>964.0571555106362</v>
@@ -7515,25 +7515,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T42" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U42" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V42" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W42" t="n">
-        <v>619.4388494194218</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="X42" t="n">
-        <v>619.4388494194218</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="Y42" t="n">
-        <v>619.4388494194218</v>
+        <v>36.07461146390284</v>
       </c>
     </row>
     <row r="43">
@@ -7591,22 +7591,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
         <v>19.28114311021272</v>
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>315.6850394389064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C44" t="n">
-        <v>315.6850394389064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D44" t="n">
-        <v>315.6850394389064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E44" t="n">
-        <v>315.6850394389064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F44" t="n">
-        <v>315.6850394389064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7667,31 +7667,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U44" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V44" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W44" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X44" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y44" t="n">
-        <v>315.6850394389064</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="45">
@@ -7701,13 +7701,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C45" t="n">
-        <v>19.28114311021272</v>
+        <v>82.77962309005554</v>
       </c>
       <c r="D45" t="n">
-        <v>19.28114311021272</v>
+        <v>82.77962309005554</v>
       </c>
       <c r="E45" t="n">
         <v>19.28114311021272</v>
@@ -7737,10 +7737,10 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N45" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
         <v>964.0571555106362</v>
@@ -7749,28 +7749,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>497.8820279860555</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V45" t="n">
-        <v>262.7299197543128</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W45" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X45" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y45" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="46">
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F46" t="n">
         <v>19.28114311021272</v>
@@ -7828,28 +7828,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N3" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,16 +8304,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,7 +8453,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8538,19 +8538,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>241.9453110519923</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,13 +8772,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>312.04082470182</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9012,19 +9012,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9246,7 +9246,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>369.8307175917693</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
@@ -9258,7 +9258,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9486,10 +9486,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2508595994748</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9498,7 +9498,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,22 +9717,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
-        <v>371.3463732493024</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9875,7 +9875,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9954,13 +9954,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>243.2069195535496</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
@@ -9969,7 +9969,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10191,25 +10191,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M30" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10434,16 +10434,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10665,10 +10665,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
@@ -10677,10 +10677,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10905,7 +10905,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
@@ -10914,7 +10914,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -11139,22 +11139,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M42" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11385,13 +11385,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O45" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22559,13 +22559,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22592,22 +22592,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>116.0654025766999</v>
       </c>
       <c r="S2" t="n">
-        <v>146.6038018839531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22671,28 +22671,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>175.8836868124218</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22835,13 +22835,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>150.6253511395826</v>
       </c>
       <c r="U5" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
-        <v>237.3633207320585</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22881,7 +22881,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>84.81608375669855</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -22923,7 +22923,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -23036,13 +23036,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>108.6003065196844</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23063,28 +23063,28 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23103,13 +23103,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>46.97390180292736</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -23118,7 +23118,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -23151,22 +23151,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>166.1028398421607</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23194,10 +23194,10 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>144.6688768646272</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23267,16 +23267,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>20.13049249612121</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,19 +23303,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>237.3633207320585</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23337,7 +23337,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>127.4196248553433</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23355,7 +23355,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>27.26179070270006</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,7 +23382,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23425,7 +23425,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>130.5841931152253</v>
+        <v>127.8627523801188</v>
       </c>
       <c r="G13" t="n">
         <v>167.9909793584588</v>
@@ -23455,7 +23455,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
         <v>86.16204325169439</v>
@@ -23504,13 +23504,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -23537,13 +23537,13 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>156.5945010984978</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
@@ -23552,16 +23552,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="15">
@@ -23580,22 +23580,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>37.34877507079931</v>
       </c>
       <c r="H15" t="n">
-        <v>102.3410493332382</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23628,7 +23628,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23640,7 +23640,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23677,7 +23677,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,13 +23692,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.10642379180146</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23738,10 +23738,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>140.9160811946027</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
         <v>174.288448637476</v>
@@ -23777,13 +23777,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>128.6853625704253</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
         <v>251.3456529078365</v>
@@ -23798,7 +23798,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="18">
@@ -23814,22 +23814,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23856,25 +23856,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>125.6477056446075</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23972,22 +23972,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>337.6653060427309</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24011,7 +24011,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24020,7 +24020,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24032,10 +24032,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24066,7 +24066,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24093,25 +24093,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>170.3657197299391</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>84.81608375669853</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24172,13 +24172,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24206,16 +24206,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275656</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
         <v>174.288448637476</v>
@@ -24248,13 +24248,13 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>6.725383157348119</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
@@ -24263,13 +24263,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24285,7 +24285,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24333,25 +24333,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>175.8836868124218</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>67.97011574095609</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24424,13 +24424,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24461,7 +24461,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24494,13 +24494,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U26" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24509,7 +24509,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>153.4048529199032</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24528,22 +24528,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,10 +24567,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
@@ -24579,16 +24579,16 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>167.3001328330679</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>7.701182263077783</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24640,16 +24640,16 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>46.82786452690794</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24677,10 +24677,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24689,7 +24689,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
@@ -24734,19 +24734,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>173.9525530126115</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24759,16 +24759,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>75.2994060246035</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -24777,10 +24777,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,7 +24804,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>33.29263169639924</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -24816,16 +24816,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24877,10 +24877,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>177.2933913771695</v>
@@ -24892,13 +24892,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3190293564909</v>
+        <v>242.0155457579237</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24923,7 +24923,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>179.6356836433646</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>165.8617568640524</v>
@@ -24932,7 +24932,7 @@
         <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24959,7 +24959,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24983,7 +24983,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24996,7 +24996,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25047,13 +25047,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>122.6508037197627</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
@@ -25062,7 +25062,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>150.1070334262686</v>
       </c>
     </row>
     <row r="34">
@@ -25078,7 +25078,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25099,7 +25099,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -25114,13 +25114,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25151,19 +25151,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>415.302737515135</v>
@@ -25172,10 +25172,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>10.13979328157633</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25199,13 +25199,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>160.679581861839</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25233,7 +25233,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>81.70178455167252</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25281,10 +25281,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>143.2478283578182</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25296,7 +25296,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25366,13 +25366,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25391,19 +25391,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>213.0080510862378</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25433,7 +25433,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25448,7 +25448,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25457,7 +25457,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25470,13 +25470,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>115.7915986513122</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>74.56821484434833</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25515,28 +25515,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25600,13 +25600,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
         <v>124.2586028933485</v>
@@ -25673,13 +25673,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>160.679581861839</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25688,13 +25688,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>173.9525530126115</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25704,28 +25704,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>149.9076499797141</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>37.33374296302787</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -25755,10 +25755,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -25773,7 +25773,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25831,7 +25831,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25849,7 +25849,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25874,19 +25874,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
-        <v>298.998522982632</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,10 +25907,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25928,7 +25928,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>145.2236497783945</v>
@@ -25944,13 +25944,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>94.78158527535656</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25989,16 +25989,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>36.26901108812089</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26032,7 +26032,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
@@ -26068,7 +26068,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
         <v>224.0165980369723</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>465249.8830877311</v>
+        <v>465249.8830877309</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>465249.8830877309</v>
+        <v>465249.8830877308</v>
       </c>
     </row>
     <row r="5">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>465249.8830877309</v>
+        <v>465249.8830877311</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>465249.8830877309</v>
+        <v>465249.8830877311</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>465249.8830877311</v>
+        <v>465249.8830877308</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>465249.8830877309</v>
+        <v>465249.8830877311</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>465249.8830877309</v>
+        <v>465249.883087731</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>465249.8830877309</v>
+        <v>465249.8830877308</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>465249.8830877309</v>
+        <v>465249.8830877311</v>
       </c>
     </row>
     <row r="16">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="C4" t="n">
-        <v>3448.11787725023</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="D4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="E4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="F4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="G4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="H4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="I4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="J4" t="n">
-        <v>3448.11787725023</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="K4" t="n">
-        <v>3448.11787725023</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="L4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="M4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="N4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="O4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="P4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-16186.34740062695</v>
+        <v>-12917.76202108071</v>
       </c>
       <c r="C6" t="n">
-        <v>64583.08413092077</v>
+        <v>67851.66951046707</v>
       </c>
       <c r="D6" t="n">
-        <v>64583.0841309208</v>
+        <v>67851.66951046709</v>
       </c>
       <c r="E6" t="n">
-        <v>98210.68413092078</v>
+        <v>101479.2695104671</v>
       </c>
       <c r="F6" t="n">
-        <v>98210.68413092078</v>
+        <v>101479.2695104671</v>
       </c>
       <c r="G6" t="n">
-        <v>98210.68413092081</v>
+        <v>101479.269510467</v>
       </c>
       <c r="H6" t="n">
-        <v>98210.68413092077</v>
+        <v>101479.269510467</v>
       </c>
       <c r="I6" t="n">
-        <v>98210.6841309208</v>
+        <v>101479.269510467</v>
       </c>
       <c r="J6" t="n">
-        <v>35150.74153181456</v>
+        <v>38419.32691136079</v>
       </c>
       <c r="K6" t="n">
-        <v>98210.68413092075</v>
+        <v>101479.269510467</v>
       </c>
       <c r="L6" t="n">
-        <v>98210.68413092078</v>
+        <v>101479.269510467</v>
       </c>
       <c r="M6" t="n">
-        <v>98210.68413092078</v>
+        <v>101479.269510467</v>
       </c>
       <c r="N6" t="n">
-        <v>98210.68413092077</v>
+        <v>101479.269510467</v>
       </c>
       <c r="O6" t="n">
-        <v>98210.68413092077</v>
+        <v>101479.2695104671</v>
       </c>
       <c r="P6" t="n">
-        <v>98210.68413092078</v>
+        <v>101479.269510467</v>
       </c>
     </row>
   </sheetData>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
+        <v>43.28534947792188</v>
+      </c>
+      <c r="N3" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N3" t="n">
-        <v>55.51629994036225</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34945,7 +34945,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
@@ -35024,16 +35024,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35258,19 +35258,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>99.81127712997396</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35492,13 +35492,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>169.9067907798017</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
@@ -35507,7 +35507,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35732,19 +35732,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35966,7 +35966,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>231.276337811895</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
@@ -35978,7 +35978,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36206,10 +36206,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36218,7 +36218,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N24" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36674,13 +36674,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>104.6525397736754</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
@@ -36689,7 +36689,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36844,7 +36844,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O29" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P29" t="n">
         <v>90.5657124162131</v>
@@ -36911,25 +36911,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M30" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37078,7 +37078,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N32" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O32" t="n">
         <v>150.7019698410586</v>
@@ -37154,16 +37154,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37385,10 +37385,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
@@ -37397,10 +37397,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37552,7 +37552,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
         <v>150.7019698410586</v>
@@ -37625,7 +37625,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
@@ -37634,7 +37634,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
         <v>207.9338608153932</v>
@@ -37859,22 +37859,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M42" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N44" t="n">
         <v>207.9338608153932</v>
@@ -38105,13 +38105,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="O45" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O45" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
